--- a/annotations.xlsx
+++ b/annotations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,41 @@
           <t>PRICE</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UPPER_SHADOW</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LOWER_SHADOW</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BODY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -498,11 +533,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.089905</v>
+        <v>1.08939</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.08723</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.09194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.08692</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.09155</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0003899999999998904</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003099999999998104</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.004320000000000102</v>
       </c>
     </row>
     <row r="3">
@@ -529,11 +585,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.09408</v>
+        <v>8585</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.09351</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.09369</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.09263</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.09334</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.000180000000000069</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0007099999999999884</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0001700000000000035</v>
       </c>
     </row>
     <row r="4">
@@ -556,15 +633,36 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45371</v>
+        <v>45359</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.088945</v>
+        <v>1.09555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.09609</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.09613</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.09373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.09402</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.000000000004e-05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0002899999999999014</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.002070000000000016</v>
       </c>
     </row>
     <row r="5">
@@ -587,15 +685,36 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45372</v>
+        <v>45362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.08986</v>
+        <v>1.0321321321</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.09446</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.09448</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.09339</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.09346</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.999999999990898e-05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.00000000000145e-05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0009999999999998899</v>
       </c>
     </row>
   </sheetData>
